--- a/ClosedXML_Tests/Resource/Examples/PivotTables/pivotstyles.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/PivotTables/pivotstyles.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt1" cacheId="0" applyWidthHeightFormats="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0" avgSubtotal="1">
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="1" applyWidthHeightFormats="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0" avgSubtotal="1">
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt3" cacheId="2" applyWidthHeightFormats="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt3" cacheId="2" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0" avgSubtotal="1">
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt4" cacheId="3" applyWidthHeightFormats="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt4" cacheId="3" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0" avgSubtotal="1">
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt5" cacheId="4" applyWidthHeightFormats="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt5" cacheId="4" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0" avgSubtotal="1">
